--- a/va_facility_data_2025-02-20/Ralph H. Johnson Department of Veterans Affairs Medical Center - Facility Data.xlsx"; filename*=UTF-8''Ralph%20H.%20Johnson%20Department%20of%20Veterans%20Affairs%20Medical%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Ralph H. Johnson Department of Veterans Affairs Medical Center - Facility Data.xlsx"; filename*=UTF-8''Ralph%20H.%20Johnson%20Department%20of%20Veterans%20Affairs%20Medical%20Center%20-%20Facility%20Data.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Effective Care" sheetId="1" r:id="Rbc33543a69f04d19ad1d8621ca22f9c7"/>
-    <x:sheet name="Safe Care" sheetId="2" r:id="Rd3a48c7b5fc94878b6685f84c87019c9"/>
-    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="Rfee775723b164425996dac4980fe03c0"/>
-    <x:sheet name="Wait Times" sheetId="4" r:id="R88f8a87fe1634dc2a23f3dbd2a706bd1"/>
-    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R3474b94d597f4ac9b1d33b80656abbf8"/>
-    <x:sheet name="Outpatient Score" sheetId="6" r:id="Rf42c7ebc52004e7ca2c91ac393204e0a"/>
+    <x:sheet name="Effective Care" sheetId="1" r:id="R0617f122fef84d9e8776801db04efc70"/>
+    <x:sheet name="Safe Care" sheetId="2" r:id="R68d6f914b8ff438d9cb618614f31c378"/>
+    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="Rf42fe89245a5404e9a5581e54b08850e"/>
+    <x:sheet name="Wait Times" sheetId="4" r:id="R10bd817574bf44398b0e26415df95e84"/>
+    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="Ra9b3dbdef0ce49b8b11b413a70dc4c3a"/>
+    <x:sheet name="Outpatient Score" sheetId="6" r:id="Rf2b9e8a125e04476b01c88c20b681129"/>
   </x:sheets>
 </x:workbook>
 </file>
